--- a/Reports/ForPopulation/ReferenceForSubsidy/pattern_.xlsx
+++ b/Reports/ForPopulation/ReferenceForSubsidy/pattern_.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>СПРАВКА</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Норм.</t>
+  </si>
+  <si>
+    <t>Временно прописано (человек)</t>
+  </si>
+  <si>
+    <t>$this-&gt;H['person_tmp']</t>
   </si>
 </sst>
 </file>
@@ -418,68 +424,68 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -777,10 +783,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A16" sqref="A16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -808,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="M1" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>33</v>
@@ -836,443 +842,457 @@
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="12" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="32" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="12" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="12" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="12" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="12" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="12" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12" customHeight="1">
+      <c r="A16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="5" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="12" customHeight="1">
-      <c r="A16" s="30" t="s">
+    <row r="17" spans="1:20" ht="12" customHeight="1">
+      <c r="A17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="6" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="12" customHeight="1">
-      <c r="A17" s="42" t="s">
+    <row r="18" spans="1:20" ht="12" customHeight="1">
+      <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="39" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="12" customHeight="1">
-      <c r="A18" s="40" t="s">
+    <row r="19" spans="1:20" ht="12" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="15" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="9">
         <v>1</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:20" ht="12" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" ht="12" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M20" s="12">
         <v>1</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="12" customHeight="1">
-      <c r="C20" s="38"/>
-      <c r="K20" s="8" t="s">
+    <row r="21" spans="1:20" ht="12" customHeight="1">
+      <c r="C21" s="16"/>
+      <c r="K21" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="8">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="12" customHeight="1">
-      <c r="K21" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="12" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="K22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="12" customHeight="1">
+      <c r="A23" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="24" t="s">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="I22" s="14" t="s">
+      <c r="G23" s="41"/>
+      <c r="I23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="9">
         <v>1</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="10"/>
-      <c r="R22" s="9" t="s">
+      <c r="O23" s="10"/>
+      <c r="R23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="12" customHeight="1">
-      <c r="K23" s="8" t="s">
+    <row r="24" spans="1:20" ht="12" customHeight="1">
+      <c r="K24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M24" s="8">
         <v>12</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:20" ht="12" customHeight="1">
+      <c r="A25" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:20" ht="12" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="30" spans="1:20" ht="12" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:20" ht="12" customHeight="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="31" spans="1:20" ht="12" customHeight="1">
+      <c r="A31" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:20" ht="12" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="33" spans="2:12" ht="12" customHeight="1">
-      <c r="B33" s="7" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" spans="1:20" ht="12" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="34" spans="2:12" ht="12" customHeight="1">
+      <c r="B34" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="12" customHeight="1">
-      <c r="K34" s="8" t="s">
+    <row r="35" spans="2:12" ht="12" customHeight="1">
+      <c r="K35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L35" s="8" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A31:I32"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A25:I26"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:F9"/>
     <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A24:I25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A30:I31"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
